--- a/Lab 07/diglab_07_02/diglab_07_02_pics/diglab_07_02_table.xlsx
+++ b/Lab 07/diglab_07_02/diglab_07_02_pics/diglab_07_02_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\College Year 2\2110263 DIG LOGIC LAB I\2110263-DIG-LOGIC-LAB-I\Lab 07\diglab_07_02\diglab_07_02_pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032494DA-542D-4F2C-82BA-E135601145FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C9C501-4A1F-4781-B6B9-C57C4C9963E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2F5C648-1E30-482C-A813-F5047B4D4EC4}"/>
   </bookViews>
@@ -131,6 +131,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -140,52 +155,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -252,13 +222,28 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -270,64 +255,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -397,93 +324,163 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,7 +805,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:E9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -820,149 +817,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="A2" s="12">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17"/>
+    <row r="3" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="A4" s="12">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17"/>
+    <row r="5" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17"/>
+    <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="A8" s="22">
+        <v>1</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>1</v>
-      </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
